--- a/KNK_temp.xlsx
+++ b/KNK_temp.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\amcwn\_PRYWATNE\Arduino_projects\kontrola_naczynka_kominka_ATmega88_final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\AMCWN\Documents\GitHub\KontrolaNaczynkaKominka\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3DF1F7-ADF5-430D-8395-CDC23DF0F05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="105" windowWidth="26835" windowHeight="13860"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="v2" sheetId="2" r:id="rId1"/>
+    <sheet name="v1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>L</t>
   </si>
@@ -52,17 +54,67 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>R blink2</t>
+  </si>
+  <si>
+    <t>Y blink2</t>
+  </si>
+  <si>
+    <t>G blink2</t>
+  </si>
+  <si>
+    <t>R blink1</t>
+  </si>
+  <si>
+    <t>R blink</t>
+  </si>
+  <si>
+    <t>tempL</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Y blink</t>
+  </si>
+  <si>
+    <t>G blink</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>tempH</t>
+  </si>
+  <si>
+    <t>G blink1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -82,8 +134,17 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +172,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,14 +289,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -221,11 +307,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -233,28 +319,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 2" xfId="1" xr:uid="{7D0B9534-AD96-445A-BAC1-08F751E05B3F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,10 +624,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6E7852-9E01-4A17-ABCE-0DABE8A1DD54}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="32">
+        <v>15</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>11</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
+        <v>10</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>9</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>8</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <v>7</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="D8" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>5</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="D9" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>4</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="E10" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
+        <v>3</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>2</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>1</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -1023,7 +1304,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
